--- a/databases/rulebase.xlsx
+++ b/databases/rulebase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzave\OneDrive - The Cooper Union for the Advancement of Science and Art\102-cooper\150-masters\sustainability\sustainability_project1\IOU-Sustainability-Model\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="770" documentId="13_ncr:1_{CDCEAF76-18EC-6241-9FBF-848DBC6C0BA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{F35BB751-E703-4FD4-B6FE-2BE2CA1397E4}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{29B72222-BC82-46E5-B8D8-A7F058093F69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{E0C45965-57A5-C34F-9001-5654C926F214}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{F9381364-5906-614B-9E8A-7DE6B42FF69A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" firstSheet="3" activeTab="9" xr2:uid="{F9381364-5906-614B-9E8A-7DE6B42FF69A}"/>
   </bookViews>
   <sheets>
     <sheet name="osus" sheetId="33" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">water!$A$14:$D$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">wealth!$A$14:$D$14</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +53,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -793,7 +795,7 @@
   <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A15" sqref="A15:D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -969,17 +971,17 @@
     </row>
     <row r="13" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="B13" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="14">
         <v>1</v>
       </c>
       <c r="D13" s="15">
         <f>SUM(A13:C13)</f>
-        <v>4.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1068,7 +1070,7 @@
       </c>
       <c r="D19" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>l</v>
+        <v>vl</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1143,7 +1145,7 @@
       </c>
       <c r="D24" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>fl</v>
+        <v>l</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1218,7 +1220,7 @@
       </c>
       <c r="D29" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>i</v>
+        <v>fl</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1338,7 +1340,7 @@
       </c>
       <c r="D37" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>i</v>
+        <v>fh</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1413,7 +1415,7 @@
       </c>
       <c r="D42" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>l</v>
+        <v>vl</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1533,7 +1535,7 @@
       </c>
       <c r="D50" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>l</v>
+        <v>fl</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1608,7 +1610,7 @@
       </c>
       <c r="D55" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>fl</v>
+        <v>i</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1683,7 +1685,7 @@
       </c>
       <c r="D60" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>i</v>
+        <v>fh</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1803,7 +1805,7 @@
       </c>
       <c r="D68" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>fl</v>
+        <v>l</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1878,7 +1880,7 @@
       </c>
       <c r="D73" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>i</v>
+        <v>fl</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1998,7 +2000,7 @@
       </c>
       <c r="D81" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>i</v>
+        <v>fh</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2073,7 +2075,7 @@
       </c>
       <c r="D86" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>fh</v>
+        <v>h</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2193,7 +2195,7 @@
       </c>
       <c r="D94" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>i</v>
+        <v>fl</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2268,7 +2270,7 @@
       </c>
       <c r="D99" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>fh</v>
+        <v>i</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2343,7 +2345,7 @@
       </c>
       <c r="D104" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>h</v>
+        <v>fh</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2447,7 +2449,7 @@
         <v>4</v>
       </c>
       <c r="D111" s="12" t="str">
-        <f t="shared" ref="D111:D142" si="3">VLOOKUP(ROUND(($A$13*VLOOKUP(A111,$F$2:$G$6,2,FALSE)+$B$13*VLOOKUP(B111,$F$2:$G$6,2,FALSE)+$C$13*VLOOKUP(C111,$F$2:$G$6,2,FALSE))/$D$13 *2 -1,0),$B$2:$C$10,2,FALSE)</f>
+        <f t="shared" ref="D111:D139" si="3">VLOOKUP(ROUND(($A$13*VLOOKUP(A111,$F$2:$G$6,2,FALSE)+$B$13*VLOOKUP(B111,$F$2:$G$6,2,FALSE)+$C$13*VLOOKUP(C111,$F$2:$G$6,2,FALSE))/$D$13 *2 -1,0),$B$2:$C$10,2,FALSE)</f>
         <v>h</v>
       </c>
     </row>
@@ -2463,7 +2465,7 @@
       </c>
       <c r="D112" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>h</v>
+        <v>vh</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2538,7 +2540,7 @@
       </c>
       <c r="D117" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>i</v>
+        <v>fl</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2658,7 +2660,7 @@
       </c>
       <c r="D125" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>i</v>
+        <v>fh</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2733,7 +2735,7 @@
       </c>
       <c r="D130" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>fh</v>
+        <v>h</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2808,7 +2810,7 @@
       </c>
       <c r="D135" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>h</v>
+        <v>vh</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2881,8 +2883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26040A54-A91A-4441-9647-E8E0A9F48AC9}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="82" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2984,14 +2986,14 @@
     </row>
     <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="B13" s="14">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C13" s="14">
         <f>SUM(A13:B13)</f>
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="D13" s="15"/>
     </row>
@@ -3081,7 +3083,7 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>vb</v>
+        <v>b</v>
       </c>
       <c r="D20" s="12"/>
     </row>
@@ -3094,7 +3096,7 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>vb</v>
+        <v>b</v>
       </c>
       <c r="D21" s="12"/>
     </row>
@@ -3107,7 +3109,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>vb</v>
+        <v>b</v>
       </c>
       <c r="D22" s="12"/>
     </row>
@@ -3120,7 +3122,7 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>vb</v>
+        <v>b</v>
       </c>
       <c r="D23" s="12"/>
     </row>
@@ -3133,7 +3135,7 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>vb</v>
+        <v>b</v>
       </c>
       <c r="D24" s="12"/>
     </row>
@@ -3146,7 +3148,7 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>a</v>
       </c>
       <c r="D25" s="12"/>
     </row>
@@ -3159,7 +3161,7 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>a</v>
       </c>
       <c r="D26" s="12"/>
     </row>
@@ -3172,7 +3174,7 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>a</v>
       </c>
       <c r="D27" s="12"/>
     </row>
@@ -3185,7 +3187,7 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>a</v>
       </c>
       <c r="D28" s="12"/>
     </row>
@@ -3198,7 +3200,7 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>a</v>
       </c>
       <c r="D29" s="12"/>
     </row>
@@ -3211,7 +3213,7 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>a</v>
       </c>
       <c r="D30" s="12"/>
     </row>
@@ -3224,7 +3226,7 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>a</v>
       </c>
       <c r="D31" s="12"/>
     </row>
@@ -3237,7 +3239,7 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>a</v>
       </c>
       <c r="D32" s="12"/>
     </row>
@@ -3250,7 +3252,7 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>a</v>
       </c>
       <c r="D33" s="12"/>
     </row>
@@ -3263,7 +3265,7 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>a</v>
       </c>
       <c r="D34" s="12"/>
     </row>
@@ -3276,7 +3278,7 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D35" s="12"/>
     </row>
@@ -3289,7 +3291,7 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D36" s="12"/>
     </row>
@@ -3302,7 +3304,7 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D37" s="12"/>
     </row>
@@ -3315,7 +3317,7 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D38" s="12"/>
     </row>
@@ -3328,7 +3330,7 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D39" s="12"/>
     </row>
@@ -3341,7 +3343,7 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
       <c r="D40" s="12"/>
     </row>
@@ -3354,7 +3356,7 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
       <c r="D41" s="12"/>
     </row>
@@ -3367,7 +3369,7 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
       <c r="D42" s="12"/>
     </row>
@@ -3380,7 +3382,7 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
       <c r="D43" s="12"/>
     </row>
@@ -3393,7 +3395,7 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
       <c r="D44" s="12"/>
     </row>
@@ -3471,7 +3473,7 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
-        <v>b</v>
+        <v>a</v>
       </c>
       <c r="D50" s="12"/>
     </row>
@@ -3484,7 +3486,7 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" si="1"/>
-        <v>b</v>
+        <v>a</v>
       </c>
       <c r="D51" s="12"/>
     </row>
@@ -3497,7 +3499,7 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" si="1"/>
-        <v>b</v>
+        <v>a</v>
       </c>
       <c r="D52" s="12"/>
     </row>
@@ -3510,7 +3512,7 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
-        <v>b</v>
+        <v>a</v>
       </c>
       <c r="D53" s="12"/>
     </row>
@@ -3523,7 +3525,7 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" si="1"/>
-        <v>b</v>
+        <v>a</v>
       </c>
       <c r="D54" s="12"/>
     </row>
@@ -3536,7 +3538,7 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D55" s="12"/>
     </row>
@@ -3549,7 +3551,7 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D56" s="12"/>
     </row>
@@ -3562,7 +3564,7 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D57" s="12"/>
     </row>
@@ -3575,7 +3577,7 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D58" s="12"/>
     </row>
@@ -3588,7 +3590,7 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D59" s="12"/>
     </row>
@@ -3601,7 +3603,7 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D60" s="12"/>
     </row>
@@ -3614,7 +3616,7 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D61" s="12"/>
     </row>
@@ -3627,7 +3629,7 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D62" s="12"/>
     </row>
@@ -3640,7 +3642,7 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D63" s="12"/>
     </row>
@@ -3653,7 +3655,7 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D64" s="12"/>
     </row>
@@ -3666,7 +3668,7 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" si="1"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
       <c r="D65" s="12"/>
     </row>
@@ -3679,7 +3681,7 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" si="1"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
       <c r="D66" s="12"/>
     </row>
@@ -3692,7 +3694,7 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" si="1"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
       <c r="D67" s="12"/>
     </row>
@@ -3705,7 +3707,7 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" si="1"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
       <c r="D68" s="12"/>
     </row>
@@ -3718,7 +3720,7 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" si="1"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
       <c r="D69" s="12"/>
     </row>
@@ -3731,7 +3733,7 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="D70" s="12"/>
     </row>
@@ -3744,7 +3746,7 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="D71" s="12"/>
     </row>
@@ -3757,7 +3759,7 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="D72" s="12"/>
     </row>
@@ -3770,7 +3772,7 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="D73" s="12"/>
     </row>
@@ -3783,7 +3785,7 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="D74" s="12"/>
     </row>
@@ -3861,7 +3863,7 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D80" s="12"/>
     </row>
@@ -3874,7 +3876,7 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D81" s="12"/>
     </row>
@@ -3887,7 +3889,7 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D82" s="12"/>
     </row>
@@ -3900,7 +3902,7 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D83" s="12"/>
     </row>
@@ -3913,7 +3915,7 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>g</v>
       </c>
       <c r="D84" s="12"/>
     </row>
@@ -3926,7 +3928,7 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" si="2"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
       <c r="D85" s="12"/>
     </row>
@@ -3939,7 +3941,7 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" si="2"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
       <c r="D86" s="12"/>
     </row>
@@ -3952,7 +3954,7 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" si="2"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
       <c r="D87" s="12"/>
     </row>
@@ -3965,7 +3967,7 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" si="2"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
       <c r="D88" s="12"/>
     </row>
@@ -3978,7 +3980,7 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" si="2"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
       <c r="D89" s="12"/>
     </row>
@@ -3991,7 +3993,7 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="D90" s="12"/>
     </row>
@@ -4004,7 +4006,7 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="D91" s="12"/>
     </row>
@@ -4017,7 +4019,7 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="D92" s="12"/>
     </row>
@@ -4030,7 +4032,7 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="D93" s="12"/>
     </row>
@@ -4043,7 +4045,7 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="D94" s="12"/>
     </row>
@@ -4056,7 +4058,7 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="D95" s="12"/>
     </row>
@@ -4069,7 +4071,7 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="D96" s="12"/>
     </row>
@@ -4082,7 +4084,7 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="D97" s="12"/>
     </row>
@@ -4095,7 +4097,7 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="D98" s="12"/>
     </row>
@@ -4108,7 +4110,7 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="D99" s="12"/>
     </row>
@@ -4121,7 +4123,7 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" si="2"/>
-        <v>g</v>
+        <v>a</v>
       </c>
       <c r="D100" s="12"/>
     </row>
@@ -4134,7 +4136,7 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" si="2"/>
-        <v>g</v>
+        <v>a</v>
       </c>
       <c r="D101" s="12"/>
     </row>
@@ -4147,7 +4149,7 @@
       </c>
       <c r="C102" t="str">
         <f t="shared" si="2"/>
-        <v>g</v>
+        <v>a</v>
       </c>
       <c r="D102" s="12"/>
     </row>
@@ -4160,7 +4162,7 @@
       </c>
       <c r="C103" t="str">
         <f t="shared" si="2"/>
-        <v>g</v>
+        <v>a</v>
       </c>
       <c r="D103" s="12"/>
     </row>
@@ -4173,7 +4175,7 @@
       </c>
       <c r="C104" t="str">
         <f t="shared" si="2"/>
-        <v>g</v>
+        <v>a</v>
       </c>
       <c r="D104" s="12"/>
     </row>
@@ -4251,7 +4253,7 @@
       </c>
       <c r="C110" t="str">
         <f t="shared" si="2"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
       <c r="D110" s="12"/>
     </row>
@@ -4264,7 +4266,7 @@
       </c>
       <c r="C111" t="str">
         <f t="shared" ref="C111:C139" si="3">VLOOKUP(ROUND(($A$13*VLOOKUP(A111,$A$2:$B$6,2,FALSE)+$B$13*VLOOKUP(B111,$A$2:$B$6,2,FALSE))/$C$13,0),$B$2:$C$6,2,FALSE)</f>
-        <v>g</v>
+        <v>vg</v>
       </c>
       <c r="D111" s="12"/>
     </row>
@@ -4277,7 +4279,7 @@
       </c>
       <c r="C112" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
       <c r="D112" s="12"/>
     </row>
@@ -4290,7 +4292,7 @@
       </c>
       <c r="C113" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
       <c r="D113" s="12"/>
     </row>
@@ -4303,7 +4305,7 @@
       </c>
       <c r="C114" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
       <c r="D114" s="12"/>
     </row>
@@ -4316,7 +4318,7 @@
       </c>
       <c r="C115" t="str">
         <f t="shared" si="3"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="D115" s="12"/>
     </row>
@@ -4329,7 +4331,7 @@
       </c>
       <c r="C116" t="str">
         <f t="shared" si="3"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="D116" s="12"/>
     </row>
@@ -4342,7 +4344,7 @@
       </c>
       <c r="C117" t="str">
         <f t="shared" si="3"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="D117" s="12"/>
     </row>
@@ -4355,7 +4357,7 @@
       </c>
       <c r="C118" t="str">
         <f t="shared" si="3"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="D118" s="12"/>
     </row>
@@ -4368,7 +4370,7 @@
       </c>
       <c r="C119" t="str">
         <f t="shared" si="3"/>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="D119" s="12"/>
     </row>
@@ -4381,7 +4383,7 @@
       </c>
       <c r="C120" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>a</v>
       </c>
       <c r="D120" s="12"/>
     </row>
@@ -4394,7 +4396,7 @@
       </c>
       <c r="C121" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>a</v>
       </c>
       <c r="D121" s="12"/>
     </row>
@@ -4407,7 +4409,7 @@
       </c>
       <c r="C122" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>a</v>
       </c>
       <c r="D122" s="12"/>
     </row>
@@ -4420,7 +4422,7 @@
       </c>
       <c r="C123" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>a</v>
       </c>
       <c r="D123" s="12"/>
     </row>
@@ -4433,7 +4435,7 @@
       </c>
       <c r="C124" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>a</v>
       </c>
       <c r="D124" s="12"/>
     </row>
@@ -4446,7 +4448,7 @@
       </c>
       <c r="C125" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>a</v>
       </c>
       <c r="D125" s="12"/>
     </row>
@@ -4459,7 +4461,7 @@
       </c>
       <c r="C126" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>a</v>
       </c>
       <c r="D126" s="12"/>
     </row>
@@ -4472,7 +4474,7 @@
       </c>
       <c r="C127" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>a</v>
       </c>
       <c r="D127" s="12"/>
     </row>
@@ -4485,7 +4487,7 @@
       </c>
       <c r="C128" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>a</v>
       </c>
       <c r="D128" s="12"/>
     </row>
@@ -4498,7 +4500,7 @@
       </c>
       <c r="C129" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>a</v>
       </c>
       <c r="D129" s="12"/>
     </row>
@@ -4511,7 +4513,7 @@
       </c>
       <c r="C130" t="str">
         <f t="shared" si="3"/>
-        <v>vg</v>
+        <v>g</v>
       </c>
       <c r="D130" s="12"/>
     </row>
@@ -4524,7 +4526,7 @@
       </c>
       <c r="C131" t="str">
         <f t="shared" si="3"/>
-        <v>vg</v>
+        <v>g</v>
       </c>
       <c r="D131" s="12"/>
     </row>
@@ -4537,7 +4539,7 @@
       </c>
       <c r="C132" t="str">
         <f t="shared" si="3"/>
-        <v>vg</v>
+        <v>g</v>
       </c>
       <c r="D132" s="12"/>
     </row>
@@ -4550,7 +4552,7 @@
       </c>
       <c r="C133" t="str">
         <f t="shared" si="3"/>
-        <v>vg</v>
+        <v>g</v>
       </c>
       <c r="D133" s="12"/>
     </row>
@@ -4563,7 +4565,7 @@
       </c>
       <c r="C134" t="str">
         <f t="shared" si="3"/>
-        <v>vg</v>
+        <v>g</v>
       </c>
       <c r="D134" s="12"/>
     </row>
@@ -4635,6 +4637,7 @@
   </sheetData>
   <autoFilter ref="A14:D14" xr:uid="{EC641608-1EEC-4E2D-8D82-74257B7D5452}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4643,13 +4646,13 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A15" sqref="A15:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4909,13 +4912,13 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="A15" sqref="A15:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5037,11 +5040,11 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C13" s="12">
         <f>SUM(A13:B13)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5088,7 +5091,7 @@
       </c>
       <c r="C17" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>a</v>
+        <v>g</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -5137,7 +5140,7 @@
       </c>
       <c r="C21" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>a</v>
+        <v>b</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -7173,12 +7176,12 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="2"/>
-    <col min="2" max="2" width="18.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.8984375" style="2"/>
+    <col min="1" max="1" width="10.796875" style="2"/>
+    <col min="2" max="2" width="18.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
@@ -7496,7 +7499,7 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A15" sqref="A15:D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7602,17 +7605,17 @@
     </row>
     <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="B13" s="14">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C13" s="14">
         <v>1</v>
       </c>
       <c r="D13" s="15">
         <f>SUM(A13:C13)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7956,7 +7959,7 @@
       </c>
       <c r="D36" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>a</v>
+        <v>b</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -8241,7 +8244,7 @@
       </c>
       <c r="D55" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>b</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -8706,7 +8709,7 @@
       </c>
       <c r="D86" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>g</v>
+        <v>a</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -8991,7 +8994,7 @@
       </c>
       <c r="D105" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>g</v>
+        <v>a</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -9080,7 +9083,7 @@
         <v>4</v>
       </c>
       <c r="D111" s="12" t="str">
-        <f t="shared" ref="D111:D142" si="3">VLOOKUP(ROUND(($A$13*VLOOKUP(A111,$A$2:$B$6,2,FALSE)+$B$13*VLOOKUP(B111,$A$2:$B$6,2,FALSE)+$C$13*VLOOKUP(C111,$A$2:$B$6,2,FALSE))/$D$13,0),$B$2:$C$6,2,FALSE)</f>
+        <f t="shared" ref="D111:D139" si="3">VLOOKUP(ROUND(($A$13*VLOOKUP(A111,$A$2:$B$6,2,FALSE)+$B$13*VLOOKUP(B111,$A$2:$B$6,2,FALSE)+$C$13*VLOOKUP(C111,$A$2:$B$6,2,FALSE))/$D$13,0),$B$2:$C$6,2,FALSE)</f>
         <v>g</v>
       </c>
     </row>
@@ -9456,7 +9459,7 @@
       </c>
       <c r="D136" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>vg</v>
+        <v>g</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -9515,15 +9518,15 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A15" sqref="A15:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="2"/>
-    <col min="2" max="2" width="18.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.8984375" style="2"/>
+    <col min="1" max="1" width="10.796875" style="2"/>
+    <col min="2" max="2" width="18.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
@@ -9797,14 +9800,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F18889-DA57-44D9-A484-F3B29235D370}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E41"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10366,8 +10369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABB0F1A-2AA6-408C-93C4-CEB093935DBE}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10495,11 +10498,11 @@
         <v>1</v>
       </c>
       <c r="B13" s="14">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="C13" s="15">
         <f>SUM(A13:B13)</f>
-        <v>3.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -10534,7 +10537,7 @@
       </c>
       <c r="C16" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>a</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -10558,7 +10561,7 @@
       </c>
       <c r="C18" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -10583,7 +10586,7 @@
       </c>
       <c r="C20" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -10607,7 +10610,7 @@
       </c>
       <c r="C22" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>g</v>
+        <v>a</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -10632,8 +10635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5428527C-ABBC-FB44-A42B-DA66E2DCC07A}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="82" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScale="82" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10735,17 +10738,17 @@
     </row>
     <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B13" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="14">
         <v>1</v>
       </c>
       <c r="D13" s="15">
         <f>SUM(A13:C13)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -10834,7 +10837,7 @@
       </c>
       <c r="D19" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -10879,7 +10882,7 @@
       </c>
       <c r="D22" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -10894,7 +10897,7 @@
       </c>
       <c r="D23" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -10909,7 +10912,7 @@
       </c>
       <c r="D24" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -10924,7 +10927,7 @@
       </c>
       <c r="D25" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -10939,7 +10942,7 @@
       </c>
       <c r="D26" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -10954,7 +10957,7 @@
       </c>
       <c r="D27" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -10969,7 +10972,7 @@
       </c>
       <c r="D28" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -10999,7 +11002,7 @@
       </c>
       <c r="D30" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -11014,7 +11017,7 @@
       </c>
       <c r="D31" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -11029,7 +11032,7 @@
       </c>
       <c r="D32" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -11074,7 +11077,7 @@
       </c>
       <c r="D35" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -11089,7 +11092,7 @@
       </c>
       <c r="D36" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>vb</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -11119,7 +11122,7 @@
       </c>
       <c r="D38" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>a</v>
+        <v>b</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -11134,7 +11137,7 @@
       </c>
       <c r="D39" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>a</v>
+        <v>b</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -11344,7 +11347,7 @@
       </c>
       <c r="D53" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>b</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -11359,7 +11362,7 @@
       </c>
       <c r="D54" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>b</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -11389,7 +11392,7 @@
       </c>
       <c r="D56" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>b</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -11404,7 +11407,7 @@
       </c>
       <c r="D57" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>b</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -11419,7 +11422,7 @@
       </c>
       <c r="D58" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>b</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -11434,7 +11437,7 @@
       </c>
       <c r="D59" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>b</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -11449,7 +11452,7 @@
       </c>
       <c r="D60" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>b</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -11464,7 +11467,7 @@
       </c>
       <c r="D61" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>b</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -11479,7 +11482,7 @@
       </c>
       <c r="D62" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>b</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -11494,7 +11497,7 @@
       </c>
       <c r="D63" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
+        <v>b</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -11524,7 +11527,7 @@
       </c>
       <c r="D65" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>b</v>
+        <v>a</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -11539,7 +11542,7 @@
       </c>
       <c r="D66" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>b</v>
+        <v>a</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -11554,7 +11557,7 @@
       </c>
       <c r="D67" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>b</v>
+        <v>a</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -11599,7 +11602,7 @@
       </c>
       <c r="D70" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>b</v>
+        <v>a</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -11809,7 +11812,7 @@
       </c>
       <c r="D84" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>g</v>
+        <v>a</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -11854,7 +11857,7 @@
       </c>
       <c r="D87" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>g</v>
+        <v>a</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -11869,7 +11872,7 @@
       </c>
       <c r="D88" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>g</v>
+        <v>a</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -11884,7 +11887,7 @@
       </c>
       <c r="D89" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>g</v>
+        <v>a</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -11914,7 +11917,7 @@
       </c>
       <c r="D91" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>g</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -11929,7 +11932,7 @@
       </c>
       <c r="D92" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>g</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -11944,7 +11947,7 @@
       </c>
       <c r="D93" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>g</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -11959,7 +11962,7 @@
       </c>
       <c r="D94" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>g</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -11974,7 +11977,7 @@
       </c>
       <c r="D95" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>g</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -11989,7 +11992,7 @@
       </c>
       <c r="D96" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>g</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -12004,7 +12007,7 @@
       </c>
       <c r="D97" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>g</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -12019,7 +12022,7 @@
       </c>
       <c r="D98" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>g</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -12049,7 +12052,7 @@
       </c>
       <c r="D100" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>g</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -12064,7 +12067,7 @@
       </c>
       <c r="D101" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>a</v>
+        <v>g</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -12274,7 +12277,7 @@
       </c>
       <c r="D115" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>a</v>
+        <v>g</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -12289,7 +12292,7 @@
       </c>
       <c r="D116" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>a</v>
+        <v>g</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -12319,7 +12322,7 @@
       </c>
       <c r="D118" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -12334,7 +12337,7 @@
       </c>
       <c r="D119" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -12379,7 +12382,7 @@
       </c>
       <c r="D122" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -12394,7 +12397,7 @@
       </c>
       <c r="D123" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -12409,7 +12412,7 @@
       </c>
       <c r="D124" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -12439,7 +12442,7 @@
       </c>
       <c r="D126" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -12454,7 +12457,7 @@
       </c>
       <c r="D127" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -12469,7 +12472,7 @@
       </c>
       <c r="D128" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -12484,7 +12487,7 @@
       </c>
       <c r="D129" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -12499,7 +12502,7 @@
       </c>
       <c r="D130" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -12514,7 +12517,7 @@
       </c>
       <c r="D131" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -12529,7 +12532,7 @@
       </c>
       <c r="D132" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -12574,7 +12577,7 @@
       </c>
       <c r="D135" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>g</v>
+        <v>vg</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -12640,6 +12643,7 @@
   </sheetData>
   <autoFilter ref="A14:D14" xr:uid="{EC641608-1EEC-4E2D-8D82-74257B7D5452}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12648,13 +12652,13 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A15" sqref="A15:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12774,14 +12778,14 @@
     </row>
     <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" s="12">
         <f>SUM(A13:B13)</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -12828,7 +12832,7 @@
       </c>
       <c r="C17" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>g</v>
+        <v>a</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -12877,7 +12881,7 @@
       </c>
       <c r="C21" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>a</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -12915,12 +12919,12 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A15" sqref="A15:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13044,15 +13048,14 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <f>1.5*B13</f>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="12">
         <f>SUM(A13:C13)</f>
-        <v>8.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -13201,7 +13204,7 @@
       </c>
       <c r="D23" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>vg</v>
+        <v>g</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -13351,7 +13354,7 @@
       </c>
       <c r="D33" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>vb</v>
+        <v>b</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -13485,13 +13488,13 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A15" sqref="A15:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13611,14 +13614,14 @@
     </row>
     <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="12">
         <f>SUM(A13:B13)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -13665,7 +13668,7 @@
       </c>
       <c r="C17" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>b</v>
+        <v>a</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -13716,7 +13719,7 @@
       </c>
       <c r="C21" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>g</v>
+        <v>a</v>
       </c>
       <c r="D21" s="3"/>
     </row>
@@ -13774,4 +13777,286 @@
   <autoFilter ref="A14:D14" xr:uid="{692131D8-F7DE-4615-B32D-662E615B3961}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008ED87CE9FD9DBC4180CBBFAE4ECA91E3" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0fe5cb423e4335c610de14cbb6d1de31">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f9c5ce50-44ec-44e4-87b4-f1509c90be14" xmlns:ns4="77295878-84d2-4158-9ff3-1c73d1ed74ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4af00d83d24c5397eef293a0587b4788" ns3:_="" ns4:_="">
+    <xsd:import namespace="f9c5ce50-44ec-44e4-87b4-f1509c90be14"/>
+    <xsd:import namespace="77295878-84d2-4158-9ff3-1c73d1ed74ff"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f9c5ce50-44ec-44e4-87b4-f1509c90be14" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="77295878-84d2-4158-9ff3-1c73d1ed74ff" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2D36955-661F-4AE4-AADC-A04939800DC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="77295878-84d2-4158-9ff3-1c73d1ed74ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f9c5ce50-44ec-44e4-87b4-f1509c90be14"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A55F39EA-7B70-4732-B6C5-230E25252B21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f9c5ce50-44ec-44e4-87b4-f1509c90be14"/>
+    <ds:schemaRef ds:uri="77295878-84d2-4158-9ff3-1c73d1ed74ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20F92F44-BCE6-42F2-BCFA-1377945580A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>